--- a/Load/ontology/Gates/SCORE_SmCohort/doc/SCORE_Sm_Cohort_variableMapWorking.xlsx
+++ b/Load/ontology/Gates/SCORE_SmCohort/doc/SCORE_Sm_Cohort_variableMapWorking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loaner-user/Documents/GitHub/ApiCommonData/Load/ontology/Gates/SCORE_SmCohort/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindsabr\Desktop\Git\ApiCommonData\ApiCommonData\Load\ontology\Gates\SCORE_SmCohort\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A746CE-BB91-BA48-A5B6-3FA87A160B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B965874-A669-49C9-9EE2-A2EFEC2855A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="2800" windowWidth="26020" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="382">
   <si>
     <t>colOrder</t>
   </si>
@@ -1196,13 +1196,31 @@
   </si>
   <si>
     <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Abnomenal swelling</t>
+  </si>
+  <si>
+    <t>OGMS_0000083</t>
+  </si>
+  <si>
+    <t>Physical examination</t>
+  </si>
+  <si>
+    <t>MUAC (cm)</t>
+  </si>
+  <si>
+    <t>EUPATH_0010084</t>
+  </si>
+  <si>
+    <t>Ascites</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1577,30 +1595,30 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="2" customWidth="1"/>
     <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="2"/>
-    <col min="8" max="8" width="17.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.1640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="19.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="2"/>
+    <col min="8" max="8" width="17.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.81640625" style="2"/>
     <col min="15" max="18" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="2"/>
+    <col min="19" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="29">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="87">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>376</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
@@ -1685,10 +1703,10 @@
         <v>330</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>378</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
@@ -1712,7 +1730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="72.5">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="87">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1782,10 +1800,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -1818,7 +1836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="87">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="87">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1894,13 +1912,13 @@
         <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>19</v>
@@ -1930,7 +1948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="87">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1956,7 +1974,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>19</v>
@@ -1986,7 +2004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="101.5">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="101.5">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -2092,7 +2110,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="101.5">
       <c r="A10" s="2" t="s">
         <v>56</v>
       </c>
@@ -2145,7 +2163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="87">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
@@ -2201,7 +2219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="87">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -2254,7 +2272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="87">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="87">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="101.5">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
@@ -2416,7 +2434,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="101.5">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -2469,7 +2487,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="101.5">
       <c r="A17" s="2" t="s">
         <v>85</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="87">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
@@ -2578,7 +2596,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="87">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
@@ -2634,7 +2652,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="87">
       <c r="A20" s="2" t="s">
         <v>98</v>
       </c>
@@ -2690,7 +2708,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="87">
       <c r="A21" s="2" t="s">
         <v>103</v>
       </c>
@@ -2746,7 +2764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="87">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="87">
       <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="87">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
@@ -2914,7 +2932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="87">
       <c r="A25" s="2" t="s">
         <v>120</v>
       </c>
@@ -2970,7 +2988,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="72.5">
       <c r="A26" s="2" t="s">
         <v>124</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="87">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="87">
       <c r="A28" s="2" t="s">
         <v>132</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="144" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="130.5">
       <c r="A29" s="2" t="s">
         <v>136</v>
       </c>
@@ -3182,7 +3200,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="87">
       <c r="A30" s="2" t="s">
         <v>140</v>
       </c>
@@ -3232,7 +3250,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="87">
       <c r="A31" s="2" t="s">
         <v>144</v>
       </c>
@@ -3285,7 +3303,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="87">
       <c r="A32" s="2" t="s">
         <v>148</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="101.5">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="87">
       <c r="A34" s="2" t="s">
         <v>157</v>
       </c>
@@ -3447,7 +3465,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="72.5">
       <c r="A35" s="2" t="s">
         <v>161</v>
       </c>
@@ -3500,7 +3518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="87">
       <c r="A36" s="2" t="s">
         <v>165</v>
       </c>
@@ -3553,7 +3571,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="87">
       <c r="A37" s="2" t="s">
         <v>169</v>
       </c>
@@ -3606,7 +3624,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="101.5">
       <c r="A38" s="2" t="s">
         <v>173</v>
       </c>
@@ -3659,7 +3677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="101.5">
       <c r="A39" s="2" t="s">
         <v>177</v>
       </c>
@@ -3712,7 +3730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="101.5">
       <c r="A40" s="2" t="s">
         <v>181</v>
       </c>
@@ -3765,7 +3783,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="101.5">
       <c r="A41" s="2" t="s">
         <v>185</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="72.5">
       <c r="A42" s="2" t="s">
         <v>189</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="87">
       <c r="A43" s="2" t="s">
         <v>194</v>
       </c>
@@ -3930,7 +3948,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="87">
       <c r="A44" s="2" t="s">
         <v>199</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="87">
       <c r="A45" s="2" t="s">
         <v>203</v>
       </c>
@@ -4035,7 +4053,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="87">
       <c r="A46" s="2" t="s">
         <v>207</v>
       </c>
@@ -4081,7 +4099,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="87">
       <c r="A47" s="2" t="s">
         <v>210</v>
       </c>
@@ -4127,7 +4145,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="87">
       <c r="A48" s="2" t="s">
         <v>213</v>
       </c>
@@ -4173,7 +4191,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="87">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -4219,7 +4237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="87">
       <c r="A50" s="2" t="s">
         <v>219</v>
       </c>
@@ -4265,7 +4283,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="87">
       <c r="A51" s="2" t="s">
         <v>222</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="87">
       <c r="A52" s="2" t="s">
         <v>226</v>
       </c>
@@ -4371,7 +4389,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="87">
       <c r="A53" s="2" t="s">
         <v>230</v>
       </c>
@@ -4427,7 +4445,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="87">
       <c r="A54" s="2" t="s">
         <v>235</v>
       </c>
@@ -4480,7 +4498,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="87">
       <c r="A55" s="2" t="s">
         <v>239</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="87">
       <c r="A56" s="2" t="s">
         <v>243</v>
       </c>
@@ -4592,7 +4610,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="101.5">
       <c r="A57" s="2" t="s">
         <v>248</v>
       </c>
@@ -4648,7 +4666,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="87">
       <c r="A58" s="2" t="s">
         <v>252</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="101.5">
       <c r="A59" s="2" t="s">
         <v>257</v>
       </c>
@@ -4757,7 +4775,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="101.5">
       <c r="A60" s="2" t="s">
         <v>261</v>
       </c>
@@ -4813,7 +4831,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="87">
       <c r="A61" s="2" t="s">
         <v>265</v>
       </c>
@@ -4869,7 +4887,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="87">
       <c r="A62" s="2" t="s">
         <v>269</v>
       </c>
@@ -4925,7 +4943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="87">
       <c r="A63" s="2" t="s">
         <v>274</v>
       </c>
@@ -4981,7 +4999,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="87">
       <c r="A64" s="2" t="s">
         <v>279</v>
       </c>
@@ -5034,7 +5052,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="87">
       <c r="A65" s="2" t="s">
         <v>283</v>
       </c>
@@ -5087,7 +5105,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="87">
       <c r="A66" s="2" t="s">
         <v>287</v>
       </c>
@@ -5143,7 +5161,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="87">
       <c r="A67" s="2" t="s">
         <v>291</v>
       </c>
@@ -5197,7 +5215,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="87">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -5253,7 +5271,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="101.5">
       <c r="A69" s="2" t="s">
         <v>300</v>
       </c>
@@ -5306,7 +5324,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="87">
       <c r="A70" s="2" t="s">
         <v>304</v>
       </c>
@@ -5356,7 +5374,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="80" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="87">
       <c r="A71" s="2" t="s">
         <v>308</v>
       </c>
@@ -5411,7 +5429,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>